--- a/用紙管理/systemv2/【設計】用紙管理.xlsx
+++ b/用紙管理/systemv2/【設計】用紙管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\用紙管理\systemv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5D88A-5647-484B-B3C0-C121A3190F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80592A88-5592-42B2-943C-E00048D0E9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>用紙管理の話</t>
     <rPh sb="0" eb="2">
@@ -47,16 +47,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ハナシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>案件情報</t>
-    <rPh sb="0" eb="2">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -123,16 +113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>用紙情報</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>用紙ID</t>
     <rPh sb="0" eb="2">
       <t>ヨウシ</t>
@@ -390,6 +370,45 @@
     <rPh sb="2" eb="3">
       <t>ジュン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A-案件情報.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K-用紙情報.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sub</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -435,12 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,432 +794,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1"/>
+    <row r="3" spans="1:11" ht="27" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="27" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="str">
+        <f>"&amp;"&amp;$D$4&amp;E4</f>
+        <v>&amp;A伝票番号</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" customHeight="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="str">
+        <f>"&amp;"&amp;$D$4&amp;E5</f>
+        <v>&amp;A発行日</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="str">
-        <f>"&amp;"&amp;$C$3&amp;D3</f>
-        <v>&amp;A伝票番号</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G12" si="0">"&amp;"&amp;$C$3&amp;D4</f>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="str">
+        <f t="shared" ref="H6:H14" si="0">"&amp;"&amp;$D$4&amp;E6</f>
         <v>&amp;A前回伝票番号</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="str">
+    <row r="7" spans="1:11" ht="27" customHeight="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A前回日付</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="str">
+    <row r="8" spans="1:11" ht="27" customHeight="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A得意先</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="str">
+    <row r="9" spans="1:11" ht="27" customHeight="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A品名</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="str">
+    <row r="10" spans="1:11" ht="27" customHeight="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A部数</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="str">
+    <row r="11" spans="1:11" ht="27" customHeight="1">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;Aサイズ</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="str">
+    <row r="12" spans="1:11" ht="27" customHeight="1">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A頁数</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="str">
+    <row r="13" spans="1:11" ht="27" customHeight="1">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A仕上日</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="str">
+    <row r="14" spans="1:11" ht="27" customHeight="1">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&amp;A仕上時間</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1">
-      <c r="B13" s="5" t="s">
+    <row r="15" spans="1:11" ht="27" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="str">
+        <f>"&amp;"&amp;$D$4&amp;E15</f>
+        <v>&amp;A伝票番号</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1">
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E16</f>
+        <v>&amp;K工程</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="27" customHeight="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E17</f>
+        <v>&amp;K工程順</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="27" customHeight="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E18</f>
+        <v>&amp;K用紙ID</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="27" customHeight="1">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D13</f>
-        <v>&amp;K工程</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D14</f>
-        <v>&amp;K工程順</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E19</f>
+        <v>&amp;K銘柄</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="27" customHeight="1">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D15</f>
-        <v>&amp;K用紙ID</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E20</f>
+        <v>&amp;Kサブ銘柄</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="27" customHeight="1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E21</f>
+        <v>&amp;K用紙サイズ</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="27" customHeight="1">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D16</f>
-        <v>&amp;K銘柄</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="27" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D17</f>
-        <v>&amp;Kサブ銘柄</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="27" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D18</f>
-        <v>&amp;K用紙サイズ</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="27" customHeight="1">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D19</f>
-        <v>&amp;K重さ</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="27" customHeight="1">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="str">
-        <f>"&amp;"&amp;$C$13&amp;D20</f>
-        <v>&amp;K目</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="27" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="6" t="str">
-        <f>"&amp;"&amp;$C$21&amp;D21</f>
-        <v>&amp;Z調査日</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="27" customHeight="1">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <f>"&amp;"&amp;$C$21&amp;D22</f>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E22</f>
+        <v>&amp;K重さ</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="27" customHeight="1">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="str">
+        <f>"&amp;"&amp;$D$15&amp;E23</f>
+        <v>&amp;K目</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="27" customHeight="1">
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>"&amp;"&amp;$D$24&amp;E24</f>
+        <v>&amp;Z調査日</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="27" customHeight="1">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>"&amp;"&amp;$D$24&amp;E25</f>
         <v>&amp;Z在庫数</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="27" customHeight="1">
-      <c r="B23" s="7" t="s">
+    <row r="26" spans="3:8" ht="27" customHeight="1">
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>"&amp;"&amp;$D$26&amp;E26</f>
+        <v>&amp;H発注是非</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="27" customHeight="1">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="F27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="str">
+        <f t="shared" ref="H27:H29" si="1">"&amp;"&amp;$D$26&amp;E27</f>
+        <v>&amp;H発注ID</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="27" customHeight="1">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7" t="str">
-        <f>"&amp;"&amp;$C$23&amp;D23</f>
-        <v>&amp;H発注是非</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="27" customHeight="1">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ref="G24:G26" si="1">"&amp;"&amp;$C$23&amp;D24</f>
-        <v>&amp;H発注ID</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="27" customHeight="1">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="str">
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>&amp;Hステータス</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="27" customHeight="1">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="str">
+    <row r="29" spans="3:8" ht="27" customHeight="1">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>&amp;H入庫日</v>
       </c>
